--- a/StockAnalyzer/Documents/EdgarProvider.xlsx
+++ b/StockAnalyzer/Documents/EdgarProvider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD63CD53-67CD-410B-B107-FB5FD81709C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB428571-6821-4D49-B2E8-250BAFD06FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{69F7E449-CA71-4324-B9CA-D112D8976653}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Net Income" sheetId="4" r:id="rId4"/>
+    <sheet name="Dividends" sheetId="6" r:id="rId4"/>
+    <sheet name="Net Income" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
   <si>
     <t>Symbol</t>
   </si>
@@ -1835,6 +1836,2923 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Net Income</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Net Income'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Net Income'!$B$1:$BH$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>40082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Net Income'!$B$2:$BH$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="5">
+                  <c:v>253146000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>417118000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>417118000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>417118000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>581090000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>571813000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>571813000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>571813000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>562536000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>501263000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>501263000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>501263000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>439990000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>535288500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>535288500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>535288500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>630587000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>622293500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>622293500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>622293500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>614000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1140000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1140000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1140000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1666000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2356500000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2356500000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2356500000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3047000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3594000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3594000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3594000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4141000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3468500000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3468500000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3468500000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2796000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3564000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3564000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3564000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4332000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7042000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7042000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7042000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9752000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7060000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7060000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7060000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4368000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17064000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17064000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17064000000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29760000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB79-4C30-978E-BC3A4DB341EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Net Income'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GOOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Net Income'!$B$1:$BH$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>40082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Net Income'!$B$3:$BH$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="24">
+                  <c:v>16348000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17913000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17913000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17913000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19478000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16070000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16070000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16070000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12662000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21699000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21699000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21699000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30736000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32539500000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32539500000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32539500000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34343000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>37306000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37306000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37306000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40269000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58151000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>58151000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>58151000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>76033000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>68002500000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>68002500000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>68002500000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59972000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>66883500000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66883500000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>66883500000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>73795000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB79-4C30-978E-BC3A4DB341EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Net Income'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Net Income'!$B$1:$BH$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>40082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Net Income'!$B$4:$BH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="2">
+                  <c:v>18760000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20955000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20955000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20955000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23150000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20064000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20064000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20064000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16978000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19420500000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19420500000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19420500000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21863000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21968500000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21968500000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21968500000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22074000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17133500000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17133500000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17133500000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12193000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14495500000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14495500000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14495500000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16798000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19001000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19001000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19001000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21204000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18887500000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18887500000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18887500000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16571000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27905500000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27905500000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27905500000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39240000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41760500000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41760500000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760500000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44281000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>52776000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52776000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52776000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>61271000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67004500000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>67004500000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67004500000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>72738000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>72549500000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>72549500000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>72549500000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72361000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>80248500000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>80248500000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>80248500000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>88136000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BB79-4C30-978E-BC3A4DB341EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Net Income'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Net Income'!$B$1:$BH$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>40082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Net Income'!$B$5:$BH$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>5704000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9858500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9858500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14013000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19967500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19967500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19967500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25922000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33827500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33827500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33827500000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41733000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39385000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39385000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39385000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37037000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38273500000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38273500000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38273500000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39510000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46452000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46452000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46452000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53394000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49540500000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49540500000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49540500000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45687000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>47019000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47019000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>47019000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48351000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>53941000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53941000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>53941000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59531000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>57393500000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57393500000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>57393500000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>55256000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>56333500000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>56333500000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56333500000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>57411000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>76045500000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>76045500000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>76045500000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>94680000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>97241500000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>97241500000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>97241500000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>99803000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>98399000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>98399000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>98399000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>96995000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BB79-4C30-978E-BC3A4DB341EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Net Income'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMZN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Net Income'!$B$1:$BH$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>40082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Net Income'!$B$6:$BH$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="1">
+                  <c:v>902000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1027000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1027000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1152000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>891500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>891500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>891500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>631000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>296000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>296000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>296000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-39000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>117500000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>117500000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>117500000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>274000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16500000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16500000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16500000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-241000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>177500000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>177500000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>177500000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>596000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1483500000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1483500000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1483500000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2371000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2702000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2702000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2702000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3033000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6553000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6553000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6553000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10073000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10830500000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10830500000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10830500000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11588000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16459500000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16459500000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16459500000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21331000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27347500000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27347500000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27347500000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33364000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15321000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15321000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15321000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2722000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13851500000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13851500000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13851500000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30425000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BB79-4C30-978E-BC3A4DB341EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Net Income'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>META</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Net Income'!$B$1:$BH$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>40082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Net Income'!$B$7:$BH$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="12">
+                  <c:v>53000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>776500000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>776500000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>776500000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1500000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2220000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2220000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2220000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2940000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3314000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3314000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3314000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3688000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6952500000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6952500000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6952500000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10217000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13075500000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13075500000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13075500000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15934000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19023000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19023000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19023000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22112000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20298500000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20298500000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20298500000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18485000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23815500000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23815500000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23815500000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29146000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>34258000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>34258000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>34258000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39370000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>31285000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31285000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31285000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23200000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>31149000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>31149000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31149000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39098000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BB79-4C30-978E-BC3A4DB341EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Net Income'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSLA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Net Income'!$B$1:$BH$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>40082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Net Income'!$B$8:$BH$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="8">
+                  <c:v>-254411000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-325312000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-325312000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-325312000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-396213000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-235113500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-235113500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-235113500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-74014000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-184027000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-184027000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-184027000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-294040000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-591351500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-591351500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-591351500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-888663000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-781788500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-781788500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-781788500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-674914000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1318157000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1318157000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1318157000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1961400000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1468745500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1468745500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1468745500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-976091000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-919045500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-919045500</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-919045500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-862000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-70500000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-70500000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-70500000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>721000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3120000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3120000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3120000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5519000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9037500000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9037500000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9037500000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12556000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13776500000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13776500000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13776500000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14997000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BB79-4C30-978E-BC3A4DB341EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="137506832"/>
+        <c:axId val="137510672"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="137506832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137510672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="137510672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137506832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -26350,6 +29268,676 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Dividends</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dividends!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dividends!$B$12:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dividends!$B$13:$AE$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="1">
+                  <c:v>46866000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181336000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>186452000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>213000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>261000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>341000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>371000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>390000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>395000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>399000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>398000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>395000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E65F-4BA1-BBC6-7EB787D3C19F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dividends!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>META</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dividends!$B$12:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dividends!$B$14:$AE$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1676000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1916000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2307000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2488000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2811000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3006000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3226000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14107000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15488000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16876000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18556000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20233000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22296000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E65F-4BA1-BBC6-7EB787D3C19F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="429180864"/>
+        <c:axId val="429173664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="429180864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429173664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="429173664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429180864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26683,2924 +30271,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Net Income</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Net Income'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NVDA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Net Income'!$B$1:$BH$1</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>40082</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40178</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40446</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40543</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40573</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40724</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40810</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40908</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40937</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41090</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41181</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41274</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41455</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41545</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41639</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41665</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41820</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41909</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42029</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42185</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42273</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42369</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42400</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42637</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42735</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42764</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43100</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43128</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43372</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43492</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43646</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43736</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43830</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43856</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44100</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44227</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44464</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44591</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44828</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44926</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44955</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45107</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45199</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45291</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45319</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45473</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Net Income'!$B$2:$BH$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="5">
-                  <c:v>253146000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>417118000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>417118000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>417118000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>581090000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>571813000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>571813000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>571813000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>562536000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>501263000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>501263000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>501263000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>439990000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>535288500</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>535288500</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>535288500</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>630587000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>622293500</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>622293500</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>622293500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>614000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1140000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1140000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1140000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1666000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2356500000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2356500000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2356500000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3047000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3594000000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3594000000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3594000000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4141000000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3468500000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3468500000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3468500000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2796000000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3564000000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3564000000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3564000000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4332000000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7042000000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7042000000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7042000000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9752000000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7060000000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7060000000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7060000000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4368000000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>17064000000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>17064000000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>17064000000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>29760000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB79-4C30-978E-BC3A4DB341EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Net Income'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GOOG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Net Income'!$B$1:$BH$1</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>40082</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40178</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40446</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40543</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40573</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40724</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40810</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40908</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40937</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41090</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41181</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41274</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41455</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41545</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41639</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41665</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41820</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41909</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42029</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42185</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42273</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42369</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42400</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42637</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42735</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42764</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43100</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43128</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43372</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43492</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43646</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43736</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43830</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43856</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44100</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44227</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44464</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44591</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44828</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44926</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44955</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45107</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45199</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45291</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45319</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45473</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Net Income'!$B$3:$BH$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="24">
-                  <c:v>16348000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17913000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>17913000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>17913000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19478000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>16070000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16070000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>16070000000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>12662000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>21699000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21699000000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>21699000000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>30736000000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>32539500000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>32539500000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>32539500000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>34343000000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>37306000000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>37306000000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>37306000000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>40269000000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>58151000000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>58151000000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>58151000000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>76033000000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>68002500000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>68002500000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>68002500000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>59972000000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>66883500000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>66883500000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>66883500000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>73795000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BB79-4C30-978E-BC3A4DB341EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Net Income'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MSFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Net Income'!$B$1:$BH$1</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>40082</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40178</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40446</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40543</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40573</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40724</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40810</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40908</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40937</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41090</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41181</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41274</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41455</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41545</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41639</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41665</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41820</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41909</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42029</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42185</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42273</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42369</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42400</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42637</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42735</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42764</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43100</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43128</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43372</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43492</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43646</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43736</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43830</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43856</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44100</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44227</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44464</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44591</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44828</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44926</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44955</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45107</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45199</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45291</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45319</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45473</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Net Income'!$B$4:$BH$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="2">
-                  <c:v>18760000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20955000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20955000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20955000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23150000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20064000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20064000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20064000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16978000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19420500000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19420500000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19420500000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21863000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21968500000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21968500000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21968500000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22074000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17133500000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17133500000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17133500000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12193000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14495500000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14495500000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14495500000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16798000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>19001000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19001000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19001000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21204000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>18887500000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>18887500000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>18887500000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>16571000000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>27905500000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>27905500000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>27905500000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39240000000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41760500000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41760500000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41760500000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44281000000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>52776000000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>52776000000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>52776000000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>61271000000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>67004500000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>67004500000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>67004500000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>72738000000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>72549500000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>72549500000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>72549500000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>72361000000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>80248500000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>80248500000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>80248500000</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>88136000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BB79-4C30-978E-BC3A4DB341EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Net Income'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AAPL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Net Income'!$B$1:$BH$1</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>40082</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40178</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40446</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40543</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40573</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40724</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40810</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40908</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40937</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41090</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41181</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41274</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41455</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41545</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41639</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41665</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41820</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41909</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42029</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42185</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42273</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42369</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42400</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42637</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42735</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42764</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43100</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43128</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43372</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43492</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43646</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43736</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43830</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43856</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44100</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44227</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44464</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44591</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44828</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44926</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44955</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45107</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45199</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45291</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45319</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45473</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Net Income'!$B$5:$BH$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>5704000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9858500000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9858500000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14013000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19967500000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19967500000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19967500000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25922000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33827500000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33827500000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33827500000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41733000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>39385000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>39385000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>39385000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37037000000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>38273500000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38273500000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38273500000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39510000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>46452000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46452000000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>46452000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>53394000000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>49540500000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>49540500000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>49540500000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45687000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>47019000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>47019000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>47019000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>48351000000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>53941000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>53941000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>53941000000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>59531000000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>57393500000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>57393500000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>57393500000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>55256000000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>56333500000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>56333500000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>56333500000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>57411000000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>76045500000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>76045500000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>76045500000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>94680000000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>97241500000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>97241500000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>97241500000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>99803000000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>98399000000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>98399000000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>98399000000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>96995000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BB79-4C30-978E-BC3A4DB341EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Net Income'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AMZN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Net Income'!$B$1:$BH$1</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>40082</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40178</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40446</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40543</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40573</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40724</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40810</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40908</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40937</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41090</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41181</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41274</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41455</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41545</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41639</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41665</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41820</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41909</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42029</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42185</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42273</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42369</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42400</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42637</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42735</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42764</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43100</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43128</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43372</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43492</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43646</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43736</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43830</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43856</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44100</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44227</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44464</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44591</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44828</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44926</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44955</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45107</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45199</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45291</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45319</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45473</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Net Income'!$B$6:$BH$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="1">
-                  <c:v>902000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1027000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1027000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1152000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>891500000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>891500000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>891500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>631000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>296000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>296000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>296000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-39000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>117500000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>117500000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>117500000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>274000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16500000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16500000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16500000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-241000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>177500000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>177500000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>177500000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>596000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1483500000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1483500000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1483500000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2371000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2702000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2702000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2702000000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3033000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6553000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6553000000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6553000000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10073000000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10830500000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10830500000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10830500000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11588000000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>16459500000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>16459500000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>16459500000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>21331000000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>27347500000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>27347500000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>27347500000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>33364000000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15321000000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>15321000000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>15321000000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-2722000000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>13851500000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>13851500000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>13851500000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>30425000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BB79-4C30-978E-BC3A4DB341EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Net Income'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>META</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Net Income'!$B$1:$BH$1</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>40082</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40178</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40446</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40543</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40573</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40724</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40810</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40908</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40937</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41090</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41181</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41274</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41455</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41545</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41639</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41665</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41820</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41909</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42029</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42185</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42273</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42369</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42400</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42637</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42735</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42764</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43100</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43128</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43372</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43492</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43646</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43736</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43830</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43856</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44100</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44227</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44464</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44591</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44828</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44926</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44955</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45107</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45199</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45291</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45319</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45473</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Net Income'!$B$7:$BH$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="12">
-                  <c:v>53000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>776500000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>776500000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>776500000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1500000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2220000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2220000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2220000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2940000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3314000000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3314000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3314000000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3688000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6952500000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6952500000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6952500000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10217000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13075500000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13075500000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13075500000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15934000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>19023000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>19023000000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>19023000000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22112000000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20298500000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>20298500000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>20298500000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>18485000000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23815500000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>23815500000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>23815500000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>29146000000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>34258000000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>34258000000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>34258000000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>39370000000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>31285000000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>31285000000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>31285000000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>23200000000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>31149000000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>31149000000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>31149000000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>39098000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-BB79-4C30-978E-BC3A4DB341EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Net Income'!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TSLA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Net Income'!$B$1:$BH$1</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>40082</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40178</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40446</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40543</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40573</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40724</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40810</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40908</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40937</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41090</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41181</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41274</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41455</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41545</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41639</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41665</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41820</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41909</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42029</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42185</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42273</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42369</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42400</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42551</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42637</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42735</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42764</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43008</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43100</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43128</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43281</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43372</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43465</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43492</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43646</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43736</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43830</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43856</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44100</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44227</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44464</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44591</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44828</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44926</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44955</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45107</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45199</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45291</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45319</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45473</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Net Income'!$B$8:$BH$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="8">
-                  <c:v>-254411000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-325312000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-325312000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-325312000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-396213000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-235113500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-235113500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-235113500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-74014000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-184027000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-184027000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-184027000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-294040000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-591351500</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-591351500</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-591351500</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-888663000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-781788500</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-781788500</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-781788500</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-674914000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1318157000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1318157000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1318157000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1961400000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1468745500</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1468745500</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1468745500</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-976091000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-919045500</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-919045500</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-919045500</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-862000000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-70500000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-70500000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-70500000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>721000000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3120000000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3120000000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3120000000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5519000000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9037500000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9037500000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9037500000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12556000000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>13776500000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>13776500000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>13776500000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>14997000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BB79-4C30-978E-BC3A4DB341EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="137506832"/>
-        <c:axId val="137510672"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="137506832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="137510672"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="137510672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="137506832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -29961,6 +30672,522 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -33578,7 +34805,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -33605,8 +34832,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -33686,11 +34913,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -33701,11 +34923,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -33717,7 +34934,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -33737,9 +34954,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -33752,10 +34966,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -33795,22 +35009,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -33915,8 +35130,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -34048,19 +35263,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -34074,6 +35290,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -34875,6 +36102,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BE8033-4E2C-1BC8-AA61-3BF85E1AB632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -35267,7 +36535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E18A8A-BF2A-4118-BD06-E16FC263FB96}">
   <dimension ref="B1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -37505,7 +38773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16EF047-04C9-4B21-B090-6E9696B72412}">
   <dimension ref="A1:AAN47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -49511,11 +50779,449 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0235A150-6D9C-4F86-ADDE-502471A43646}">
+  <dimension ref="A1:AE14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>41090</v>
+      </c>
+      <c r="C1" s="1">
+        <v>41301</v>
+      </c>
+      <c r="D1" s="1">
+        <v>41455</v>
+      </c>
+      <c r="E1" s="1">
+        <v>41665</v>
+      </c>
+      <c r="F1" s="1">
+        <v>41820</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42029</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42185</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42273</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42369</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42400</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42551</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42735</v>
+      </c>
+      <c r="N1" s="1">
+        <v>42764</v>
+      </c>
+      <c r="O1" s="1">
+        <v>42916</v>
+      </c>
+      <c r="P1" s="1">
+        <v>43100</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>43128</v>
+      </c>
+      <c r="R1" s="1">
+        <v>43190</v>
+      </c>
+      <c r="S1" s="1">
+        <v>43372</v>
+      </c>
+      <c r="T1" s="1">
+        <v>43492</v>
+      </c>
+      <c r="U1" s="1">
+        <v>43646</v>
+      </c>
+      <c r="V1" s="1">
+        <v>43856</v>
+      </c>
+      <c r="W1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="X1" s="1">
+        <v>44227</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>44377</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>44591</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>44742</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>44955</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>45107</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>45319</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>46866000</v>
+      </c>
+      <c r="E2">
+        <v>181336000</v>
+      </c>
+      <c r="G2">
+        <v>186452000</v>
+      </c>
+      <c r="K2">
+        <v>213000000</v>
+      </c>
+      <c r="N2">
+        <v>261000000</v>
+      </c>
+      <c r="Q2">
+        <v>341000000</v>
+      </c>
+      <c r="T2">
+        <v>371000000</v>
+      </c>
+      <c r="V2">
+        <v>390000000</v>
+      </c>
+      <c r="X2">
+        <v>395000000</v>
+      </c>
+      <c r="Z2">
+        <v>399000000</v>
+      </c>
+      <c r="AB2">
+        <v>398000000</v>
+      </c>
+      <c r="AD2">
+        <v>395000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>47000000</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1676000000</v>
+      </c>
+      <c r="D7">
+        <v>1916000000</v>
+      </c>
+      <c r="F7">
+        <v>2307000000</v>
+      </c>
+      <c r="H7">
+        <v>2488000000</v>
+      </c>
+      <c r="L7">
+        <v>2811000000</v>
+      </c>
+      <c r="O7">
+        <v>3006000000</v>
+      </c>
+      <c r="R7">
+        <v>3226000000</v>
+      </c>
+      <c r="U7">
+        <v>14107000000</v>
+      </c>
+      <c r="W7">
+        <v>15488000000</v>
+      </c>
+      <c r="Y7">
+        <v>16876000000</v>
+      </c>
+      <c r="AA7">
+        <v>18556000000</v>
+      </c>
+      <c r="AC7">
+        <v>20233000000</v>
+      </c>
+      <c r="AE7">
+        <v>22296000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>41090</v>
+      </c>
+      <c r="C12" s="1">
+        <v>41301</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41455</v>
+      </c>
+      <c r="E12" s="1">
+        <v>41665</v>
+      </c>
+      <c r="F12" s="1">
+        <v>41820</v>
+      </c>
+      <c r="G12" s="1">
+        <v>42029</v>
+      </c>
+      <c r="H12" s="1">
+        <v>42185</v>
+      </c>
+      <c r="I12" s="1">
+        <v>42273</v>
+      </c>
+      <c r="J12" s="1">
+        <v>42369</v>
+      </c>
+      <c r="K12" s="1">
+        <v>42400</v>
+      </c>
+      <c r="L12" s="1">
+        <v>42551</v>
+      </c>
+      <c r="M12" s="1">
+        <v>42735</v>
+      </c>
+      <c r="N12" s="1">
+        <v>42764</v>
+      </c>
+      <c r="O12" s="1">
+        <v>42916</v>
+      </c>
+      <c r="P12" s="1">
+        <v>43100</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>43128</v>
+      </c>
+      <c r="R12" s="1">
+        <v>43190</v>
+      </c>
+      <c r="S12" s="1">
+        <v>43372</v>
+      </c>
+      <c r="T12" s="1">
+        <v>43492</v>
+      </c>
+      <c r="U12" s="1">
+        <v>43646</v>
+      </c>
+      <c r="V12" s="1">
+        <v>43856</v>
+      </c>
+      <c r="W12" s="1">
+        <v>44012</v>
+      </c>
+      <c r="X12" s="1">
+        <v>44227</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>44377</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>44591</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>44742</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>44955</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>45107</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>45319</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>46866000</v>
+      </c>
+      <c r="E13">
+        <v>181336000</v>
+      </c>
+      <c r="G13">
+        <v>186452000</v>
+      </c>
+      <c r="K13">
+        <v>213000000</v>
+      </c>
+      <c r="N13">
+        <v>261000000</v>
+      </c>
+      <c r="Q13">
+        <v>341000000</v>
+      </c>
+      <c r="T13">
+        <v>371000000</v>
+      </c>
+      <c r="V13">
+        <v>390000000</v>
+      </c>
+      <c r="X13">
+        <v>395000000</v>
+      </c>
+      <c r="Z13">
+        <v>399000000</v>
+      </c>
+      <c r="AB13">
+        <v>398000000</v>
+      </c>
+      <c r="AD13">
+        <v>395000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1676000000</v>
+      </c>
+      <c r="D14">
+        <v>1916000000</v>
+      </c>
+      <c r="F14">
+        <v>2307000000</v>
+      </c>
+      <c r="H14">
+        <v>2488000000</v>
+      </c>
+      <c r="L14">
+        <v>2811000000</v>
+      </c>
+      <c r="O14">
+        <v>3006000000</v>
+      </c>
+      <c r="R14">
+        <v>3226000000</v>
+      </c>
+      <c r="U14">
+        <v>14107000000</v>
+      </c>
+      <c r="W14">
+        <v>15488000000</v>
+      </c>
+      <c r="Y14">
+        <v>16876000000</v>
+      </c>
+      <c r="AA14">
+        <v>18556000000</v>
+      </c>
+      <c r="AC14">
+        <v>20233000000</v>
+      </c>
+      <c r="AE14">
+        <v>22296000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF512A9-65B6-46B7-840D-F4E53473A5D7}">
   <dimension ref="A1:GJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/StockAnalyzer/Documents/EdgarProvider.xlsx
+++ b/StockAnalyzer/Documents/EdgarProvider.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB428571-6821-4D49-B2E8-250BAFD06FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD26F03-3069-4676-8732-536D8399CC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{69F7E449-CA71-4324-B9CA-D112D8976653}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{69F7E449-CA71-4324-B9CA-D112D8976653}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Dividends" sheetId="6" r:id="rId4"/>
-    <sheet name="Net Income" sheetId="4" r:id="rId5"/>
+    <sheet name="Equity" sheetId="7" r:id="rId4"/>
+    <sheet name="Long-Term Debt" sheetId="8" r:id="rId5"/>
+    <sheet name="Dividends" sheetId="6" r:id="rId6"/>
+    <sheet name="Net Income" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="12">
   <si>
     <t>Symbol</t>
   </si>
@@ -1872,6 +1874,1024 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Dividends</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dividends!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dividends!$B$12:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dividends!$B$13:$AE$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="1">
+                  <c:v>46866000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181336000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>186452000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>213000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>261000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>341000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>371000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>390000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>395000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>399000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>398000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>395000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E65F-4BA1-BBC6-7EB787D3C19F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dividends!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>META</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dividends!$B$12:$AE$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dividends!$B$14:$AE$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1676000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1916000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2307000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2488000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2811000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3006000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3226000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14107000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15488000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16876000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18556000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20233000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22296000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E65F-4BA1-BBC6-7EB787D3C19F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="429180864"/>
+        <c:axId val="429173664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="429180864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429173664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="429173664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429180864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Net Income'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Net Income'!$B$26:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Net Income'!$B$27:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>253146000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>581090000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>562536000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>439990000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>630587000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>614000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1666000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3047000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4141000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2796000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4332000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9752000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4368000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29760000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4576-43B5-98AA-3F900805989A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="429184704"/>
+        <c:axId val="429186624"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="429184704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429186624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="429186624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429184704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -27614,7 +28634,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -28355,7 +29375,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -29116,7 +30136,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -29288,7 +30308,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Dividends</a:t>
+              <a:t>Equity</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -29325,15 +30345,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dividends!$A$13</c:f>
+              <c:f>Equity!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -29343,175 +30363,378 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Dividends!$B$12:$AE$12</c:f>
+              <c:f>Equity!$B$1:$BH$1</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
+                  <c:v>40082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>41090</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
+                  <c:v>41181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>41301</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
                   <c:v>41455</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>41665</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="18">
                   <c:v>41820</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="19">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>42029</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="22">
                   <c:v>42185</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="23">
                   <c:v>42273</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="24">
                   <c:v>42369</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
                   <c:v>42400</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="26">
                   <c:v>42551</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="27">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>42735</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="29">
                   <c:v>42764</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="30">
                   <c:v>42916</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="31">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>43100</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="33">
                   <c:v>43128</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>43372</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="36">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>43492</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="38">
                   <c:v>43646</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>43856</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="42">
                   <c:v>44012</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>44227</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="46">
                   <c:v>44377</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="47">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>44591</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="50">
                   <c:v>44742</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="51">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>44955</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="54">
                   <c:v>45107</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="55">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>45319</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="58">
                   <c:v>45473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Dividends!$B$13:$AE$13</c:f>
+              <c:f>Equity!$B$2:$BH$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="1">
-                  <c:v>46866000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>181336000</c:v>
-                </c:pt>
+                <c:ptCount val="59"/>
                 <c:pt idx="5">
-                  <c:v>186452000</c:v>
+                  <c:v>3181462000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3663593000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3663593000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3663593000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>213000000</c:v>
+                  <c:v>4145724000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4486713500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4486713500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>261000000</c:v>
+                  <c:v>4486713500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4827703000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4642050500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>341000000</c:v>
+                  <c:v>4642050500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4642050500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4456398000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>371000000</c:v>
+                  <c:v>4437190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4437190000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>390000000</c:v>
+                  <c:v>4437190000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4417982000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>395000000</c:v>
+                  <c:v>4443491000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4443491000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>399000000</c:v>
+                  <c:v>4443491000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4469000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>398000000</c:v>
+                  <c:v>5115500000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5115500000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>395000000</c:v>
+                  <c:v>5115500000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5762000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6616500000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6616500000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6616500000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7471000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8406500000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8406500000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8406500000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9342000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10773000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10773000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10773000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12204000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14548500000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14548500000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14548500000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16893000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21752500000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21752500000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21752500000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26612000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24356500000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>24356500000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24356500000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22101000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32539500000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32539500000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>32539500000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42978000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E65F-4BA1-BBC6-7EB787D3C19F}"/>
+              <c16:uniqueId val="{00000000-6FF7-4373-A618-1FB797B9918D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -29520,188 +30743,2256 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dividends!$A$14</c:f>
+              <c:f>Equity!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>META</c:v>
+                  <c:v>GOOG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Dividends!$B$12:$AE$12</c:f>
+              <c:f>Equity!$B$1:$BH$1</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
+                  <c:v>40082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>41090</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
+                  <c:v>41181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>41301</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
                   <c:v>41455</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>41665</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="18">
                   <c:v>41820</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="19">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>42029</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="22">
                   <c:v>42185</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="23">
                   <c:v>42273</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="24">
                   <c:v>42369</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
                   <c:v>42400</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="26">
                   <c:v>42551</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="27">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>42735</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="29">
                   <c:v>42764</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="30">
                   <c:v>42916</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="31">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>43100</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="33">
                   <c:v>43128</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>43190</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>43372</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="36">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>43492</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="38">
                   <c:v>43646</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>43856</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="42">
                   <c:v>44012</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>44227</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="46">
                   <c:v>44377</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="47">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>44591</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="50">
                   <c:v>44742</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="51">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>44955</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="54">
                   <c:v>45107</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="55">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>45319</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="58">
                   <c:v>45473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Dividends!$B$14:$AE$14</c:f>
+              <c:f>Equity!$B$3:$BH$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1676000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1916000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2307000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2488000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2811000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3006000000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3226000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14107000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15488000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16876000000</c:v>
+                <c:ptCount val="59"/>
+                <c:pt idx="24">
+                  <c:v>120331000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18556000000</c:v>
+                  <c:v>129683500000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>129683500000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20233000000</c:v>
+                  <c:v>129683500000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>139036000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22296000000</c:v>
+                  <c:v>145769000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>145769000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>145769000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>152502000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165065000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>165065000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>165065000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>177628000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>189535000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>189535000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>189535000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201442000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>211993000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>211993000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>211993000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>222544000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>237089500000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>237089500000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>237089500000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>251635000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>253889500000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>253889500000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>253889500000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>256144000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>269761500000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>269761500000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>269761500000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>283379000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E65F-4BA1-BBC6-7EB787D3C19F}"/>
+              <c16:uniqueId val="{00000001-6FF7-4373-A618-1FB797B9918D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Equity!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Equity!$B$1:$BH$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>40082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Equity!$B$4:$BH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="2">
+                  <c:v>46175000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51629000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51629000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51629000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57083000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61723000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61723000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61723000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66363000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72653500000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72653500000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72653500000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78944000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84364000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84364000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84364000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89784000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>84933500000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84933500000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84933500000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80083000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76040000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76040000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76040000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71997000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72195500000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>72195500000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>72195500000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>72394000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>77556000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77556000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77556000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82718000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>92524000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>92524000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92524000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>102330000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>110317000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>110317000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>110317000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>118304000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>130146000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>130146000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>130146000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>141988000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>154265000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>154265000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>154265000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>166542000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>186382500000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>186382500000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>186382500000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>206223000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>237350000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>237350000000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>237350000000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>268477000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6FF7-4373-A618-1FB797B9918D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Equity!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Equity!$B$1:$BH$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>40082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Equity!$B$5:$BH$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>27832000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37811500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37811500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47791000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62203000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62203000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62203000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76615000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97412500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97412500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97412500000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>118210000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120879500000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120879500000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120879500000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>123549000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>117548000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>117548000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>117548000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>111547000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>115451000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115451000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115451000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>119355000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>123802000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>123802000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>123802000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>128249000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>131148000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>131148000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>131148000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>134047000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>120597000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>120597000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>120597000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>107147000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98817500000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>98817500000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>98817500000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90488000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>77913500000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>77913500000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>77913500000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>65339000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64214500000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>64214500000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64214500000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>63090000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56881000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56881000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56881000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50672000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>56409000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56409000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56409000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62146000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6FF7-4373-A618-1FB797B9918D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Equity!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMZN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Equity!$B$1:$BH$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>40082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Equity!$B$6:$BH$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="1">
+                  <c:v>5257000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6060500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6060500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6864000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7310500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7310500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7310500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7757000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7974500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7974500000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7974500000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8969000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8969000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8969000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9746000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10243500000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10243500000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10243500000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10741000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12062500000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12062500000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12062500000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13384000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16334500000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16334500000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16334500000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19285000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23497000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23497000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23497000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27709000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35629000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35629000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35629000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43549000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52804500000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>52804500000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52804500000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62060000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>77732000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>77732000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>77732000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>93404000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>115824500000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>115824500000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>115824500000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>138245000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>142144000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>142144000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>142144000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>146043000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>173959000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>173959000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>173959000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>201875000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6FF7-4373-A618-1FB797B9918D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Equity!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>META</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Equity!$B$1:$BH$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>40082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Equity!$B$7:$BH$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="12">
+                  <c:v>11755000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13612500000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13612500000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13612500000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15470000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25783000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25783000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25783000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36096000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40157000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40157000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40157000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44218000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51706000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51706000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51706000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59194000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66770500000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>66770500000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>66770500000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74347000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79237000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79237000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>79237000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>84127000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92590500000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>92590500000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>92590500000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>101054000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>114672000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>114672000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>114672000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>128290000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>126584500000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>126584500000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>126584500000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>124879000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>125296000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>125296000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>125296000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>125713000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>139440500000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>139440500000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>139440500000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>153168000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6FF7-4373-A618-1FB797B9918D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Equity!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSLA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Equity!$B$1:$BH$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>40082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42273</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43372</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Equity!$B$8:$BH$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="8">
+                  <c:v>224045000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174372500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174372500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>174372500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>124700000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>395910000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>395910000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>395910000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>667120000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>789415000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>789415000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>789415000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>911710000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000327000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1000327000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1000327000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1088944000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2920927500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2920927500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2920927500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4752911000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4495076500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4495076500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4495076500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4237242000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4580242500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4580242500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4580242500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4923243000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5770621500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5770621500</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5770621500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6618000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14421500000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14421500000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14421500000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22225000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26207000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26207000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26207000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30189000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37446500000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>37446500000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37446500000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44704000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53669000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>53669000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>53669000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62634000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6FF7-4373-A618-1FB797B9918D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -29713,32 +33004,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429180864"/>
-        <c:axId val="429173664"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="429180864"/>
+        <c:smooth val="0"/>
+        <c:axId val="1519292400"/>
+        <c:axId val="1519287120"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1519292400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -29746,8 +33024,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -29774,12 +33052,14 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429173664"/>
+        <c:crossAx val="1519287120"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="429173664"/>
+        <c:axId val="1519287120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29805,14 +33085,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -29836,9 +33110,9 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429180864"/>
+        <c:crossAx val="1519292400"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -29881,13 +33155,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -29938,6 +33205,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Long Term Debt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -29978,7 +33270,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Net Income'!$A$27</c:f>
+              <c:f>'Long-Term Debt'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -30001,102 +33293,243 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Net Income'!$B$26:$O$26</c:f>
+              <c:f>'Long-Term Debt'!$B$1:$AQ$1</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>40573</c:v>
+                  <c:v>40359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40937</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41301</c:v>
+                  <c:v>40908</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>41665</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>42029</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>42400</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>42764</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>43128</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="22">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>43492</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>43856</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="28">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>44227</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="31">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>44591</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="34">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>44955</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="37">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Net Income'!$B$27:$O$27</c:f>
+              <c:f>'Long-Term Debt'!$B$2:$AQ$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>253146000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>581090000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>562536000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>439990000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>630587000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>614000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1666000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3047000000</c:v>
-                </c:pt>
+                <c:ptCount val="42"/>
                 <c:pt idx="8">
-                  <c:v>4141000000</c:v>
+                  <c:v>1356375000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2796000000</c:v>
+                  <c:v>1370358500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4332000000</c:v>
+                  <c:v>1370358500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9752000000</c:v>
+                  <c:v>1370358500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4368000000</c:v>
+                  <c:v>1384342000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29760000000</c:v>
+                  <c:v>1398671000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1398671000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1413000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1698000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1698000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1983000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1984000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1984000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1985000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1986500000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1986500000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1988000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1989500000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1989500000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1991000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4477000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4477000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6963000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8954500000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8954500000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10946000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10949500000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10949500000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10953000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10331000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10331000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10331000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9709000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30104,7 +33537,1599 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4576-43B5-98AA-3F900805989A}"/>
+              <c16:uniqueId val="{00000000-E117-4310-B1AF-1ED12A5AC8F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long-Term Debt'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GOOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Long-Term Debt'!$B$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long-Term Debt'!$B$3:$AQ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="14">
+                  <c:v>3225000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3612500000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3612500000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4000000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4013000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4013000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4026000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4044000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4044000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4062000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4373500000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4373500000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4685000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10002000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10002000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15319000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15379500000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15379500000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15440000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15376000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15376000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15312000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15087000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15087000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15087000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14862000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E117-4310-B1AF-1ED12A5AC8F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long-Term Debt'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Long-Term Debt'!$B$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long-Term Debt'!$B$4:$AQ$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>5000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11900000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11900000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11900000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13750000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15600000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18100000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18100000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20600000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25450000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25450000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25450000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30300000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35550000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35550000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40800000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58950000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58950000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>77100000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76650000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76650000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76200000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74200000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74200000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>72200000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67763500000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67763500000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63327000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60736500000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60736500000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58146000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>53963500000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53963500000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49781000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48509000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>48509000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47237000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46087000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46087000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46087000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44937000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E117-4310-B1AF-1ED12A5AC8F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long-Term Debt'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AAPL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Long-Term Debt'!$B$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long-Term Debt'!$B$5:$AQ$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="6">
+                  <c:v>16960000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22973500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22973500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22973500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28987000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67045000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105103000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E117-4310-B1AF-1ED12A5AC8F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long-Term Debt'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMZN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Long-Term Debt'!$B$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long-Term Debt'!$B$6:$AQ$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="2">
+                  <c:v>384000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2037500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3691000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3829000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3829000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3967000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6924000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6924000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6924000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9881000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9221500000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9221500000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8562000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8700000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8700000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8838000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16890000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16890000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24942000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24953500000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24953500000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24965000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24892500000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24892500000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24820000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28997000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28997000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33174000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41863500000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41863500000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50553000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60547500000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60547500000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70542000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>68862000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>68862000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>68862000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67182000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E117-4310-B1AF-1ED12A5AC8F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long-Term Debt'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>META</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Long-Term Debt'!$B$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long-Term Debt'!$B$7:$AQ$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="39">
+                  <c:v>18385000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E117-4310-B1AF-1ED12A5AC8F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long-Term Debt'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSLA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Long-Term Debt'!$B$1:$AQ$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>40359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41090</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long-Term Debt'!$B$8:$AQ$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="4">
+                  <c:v>452336000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1706065500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1706065500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1706065500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1706065500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1706065500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1706065500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2959795000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1482843508</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1482843508</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1482843508</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1482843508</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1482843508</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5892016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4417438508</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4417438508</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8828985000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8619737500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8619737500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8410490000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9406245000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9406245000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10402000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9432000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9432000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8462000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6358000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6358000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4254000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2641500000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2641500000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1029000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1855500000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1855500000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1855500000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2682000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E117-4310-B1AF-1ED12A5AC8F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -30117,11 +35142,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="429184704"/>
-        <c:axId val="429186624"/>
+        <c:axId val="330424128"/>
+        <c:axId val="330424608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="429184704"/>
+        <c:axId val="330424128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30164,14 +35189,14 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429186624"/>
+        <c:crossAx val="330424608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
+        <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429186624"/>
+        <c:axId val="330424608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30222,7 +35247,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429184704"/>
+        <c:crossAx val="330424128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30234,6 +35259,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -30312,6 +35368,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -31188,6 +36324,1038 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -34805,7 +40973,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -34832,8 +41000,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -34913,6 +41081,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -34923,6 +41096,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -34934,7 +41112,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -34954,6 +41132,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -34966,10 +41147,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -35009,23 +41190,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -35130,8 +41310,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -35263,20 +41443,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -35290,17 +41469,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -36102,15 +42270,97 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED82CE72-5931-6415-2118-39418571F8F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF585702-9A52-752B-1503-C60421ED00A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -36139,7 +42389,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -50779,11 +57029,2109 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2167F3-0177-4015-B29C-1B009B91740A}">
+  <dimension ref="A1:BH8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="60" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>40082</v>
+      </c>
+      <c r="C1" s="1">
+        <v>40178</v>
+      </c>
+      <c r="D1" s="1">
+        <v>40359</v>
+      </c>
+      <c r="E1" s="1">
+        <v>40446</v>
+      </c>
+      <c r="F1" s="1">
+        <v>40543</v>
+      </c>
+      <c r="G1" s="1">
+        <v>40573</v>
+      </c>
+      <c r="H1" s="1">
+        <v>40724</v>
+      </c>
+      <c r="I1" s="1">
+        <v>40810</v>
+      </c>
+      <c r="J1" s="1">
+        <v>40908</v>
+      </c>
+      <c r="K1" s="1">
+        <v>40937</v>
+      </c>
+      <c r="L1" s="1">
+        <v>41090</v>
+      </c>
+      <c r="M1" s="1">
+        <v>41181</v>
+      </c>
+      <c r="N1" s="1">
+        <v>41274</v>
+      </c>
+      <c r="O1" s="1">
+        <v>41301</v>
+      </c>
+      <c r="P1" s="1">
+        <v>41455</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>41545</v>
+      </c>
+      <c r="R1" s="1">
+        <v>41639</v>
+      </c>
+      <c r="S1" s="1">
+        <v>41665</v>
+      </c>
+      <c r="T1" s="1">
+        <v>41820</v>
+      </c>
+      <c r="U1" s="1">
+        <v>41909</v>
+      </c>
+      <c r="V1" s="1">
+        <v>42004</v>
+      </c>
+      <c r="W1" s="1">
+        <v>42029</v>
+      </c>
+      <c r="X1" s="1">
+        <v>42185</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>42273</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>42369</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>42400</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>42551</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>42637</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>42735</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>42764</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>42916</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>43008</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>43100</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>43128</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>43281</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>43372</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>43465</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>43492</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>43646</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>43736</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>43830</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>43856</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44100</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>44227</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>44377</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>44464</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>44561</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>44591</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>44742</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>44828</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>44926</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>44955</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>45107</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>45199</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>45291</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>45319</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>3181462000</v>
+      </c>
+      <c r="H2">
+        <v>3663593000</v>
+      </c>
+      <c r="I2">
+        <v>3663593000</v>
+      </c>
+      <c r="J2">
+        <v>3663593000</v>
+      </c>
+      <c r="K2">
+        <v>4145724000</v>
+      </c>
+      <c r="L2">
+        <v>4486713500</v>
+      </c>
+      <c r="M2">
+        <v>4486713500</v>
+      </c>
+      <c r="N2">
+        <v>4486713500</v>
+      </c>
+      <c r="O2">
+        <v>4827703000</v>
+      </c>
+      <c r="P2">
+        <v>4642050500</v>
+      </c>
+      <c r="Q2">
+        <v>4642050500</v>
+      </c>
+      <c r="R2">
+        <v>4642050500</v>
+      </c>
+      <c r="S2">
+        <v>4456398000</v>
+      </c>
+      <c r="T2">
+        <v>4437190000</v>
+      </c>
+      <c r="U2">
+        <v>4437190000</v>
+      </c>
+      <c r="V2">
+        <v>4437190000</v>
+      </c>
+      <c r="W2">
+        <v>4417982000</v>
+      </c>
+      <c r="X2">
+        <v>4443491000</v>
+      </c>
+      <c r="Y2">
+        <v>4443491000</v>
+      </c>
+      <c r="Z2">
+        <v>4443491000</v>
+      </c>
+      <c r="AA2">
+        <v>4469000000</v>
+      </c>
+      <c r="AB2">
+        <v>5115500000</v>
+      </c>
+      <c r="AC2">
+        <v>5115500000</v>
+      </c>
+      <c r="AD2">
+        <v>5115500000</v>
+      </c>
+      <c r="AE2">
+        <v>5762000000</v>
+      </c>
+      <c r="AF2">
+        <v>6616500000</v>
+      </c>
+      <c r="AG2">
+        <v>6616500000</v>
+      </c>
+      <c r="AH2">
+        <v>6616500000</v>
+      </c>
+      <c r="AI2">
+        <v>7471000000</v>
+      </c>
+      <c r="AJ2">
+        <v>8406500000</v>
+      </c>
+      <c r="AK2">
+        <v>8406500000</v>
+      </c>
+      <c r="AL2">
+        <v>8406500000</v>
+      </c>
+      <c r="AM2">
+        <v>9342000000</v>
+      </c>
+      <c r="AN2">
+        <v>10773000000</v>
+      </c>
+      <c r="AO2">
+        <v>10773000000</v>
+      </c>
+      <c r="AP2">
+        <v>10773000000</v>
+      </c>
+      <c r="AQ2">
+        <v>12204000000</v>
+      </c>
+      <c r="AR2">
+        <v>14548500000</v>
+      </c>
+      <c r="AS2">
+        <v>14548500000</v>
+      </c>
+      <c r="AT2">
+        <v>14548500000</v>
+      </c>
+      <c r="AU2">
+        <v>16893000000</v>
+      </c>
+      <c r="AV2">
+        <v>21752500000</v>
+      </c>
+      <c r="AW2">
+        <v>21752500000</v>
+      </c>
+      <c r="AX2">
+        <v>21752500000</v>
+      </c>
+      <c r="AY2">
+        <v>26612000000</v>
+      </c>
+      <c r="AZ2">
+        <v>24356500000</v>
+      </c>
+      <c r="BA2">
+        <v>24356500000</v>
+      </c>
+      <c r="BB2">
+        <v>24356500000</v>
+      </c>
+      <c r="BC2">
+        <v>22101000000</v>
+      </c>
+      <c r="BD2">
+        <v>32539500000</v>
+      </c>
+      <c r="BE2">
+        <v>32539500000</v>
+      </c>
+      <c r="BF2">
+        <v>32539500000</v>
+      </c>
+      <c r="BG2">
+        <v>42978000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>120331000000</v>
+      </c>
+      <c r="AA3">
+        <v>129683500000</v>
+      </c>
+      <c r="AB3">
+        <v>129683500000</v>
+      </c>
+      <c r="AC3">
+        <v>129683500000</v>
+      </c>
+      <c r="AD3">
+        <v>139036000000</v>
+      </c>
+      <c r="AE3">
+        <v>145769000000</v>
+      </c>
+      <c r="AF3">
+        <v>145769000000</v>
+      </c>
+      <c r="AG3">
+        <v>145769000000</v>
+      </c>
+      <c r="AH3">
+        <v>152502000000</v>
+      </c>
+      <c r="AI3">
+        <v>165065000000</v>
+      </c>
+      <c r="AJ3">
+        <v>165065000000</v>
+      </c>
+      <c r="AK3">
+        <v>165065000000</v>
+      </c>
+      <c r="AL3">
+        <v>177628000000</v>
+      </c>
+      <c r="AM3">
+        <v>189535000000</v>
+      </c>
+      <c r="AN3">
+        <v>189535000000</v>
+      </c>
+      <c r="AO3">
+        <v>189535000000</v>
+      </c>
+      <c r="AP3">
+        <v>201442000000</v>
+      </c>
+      <c r="AQ3">
+        <v>211993000000</v>
+      </c>
+      <c r="AR3">
+        <v>211993000000</v>
+      </c>
+      <c r="AS3">
+        <v>211993000000</v>
+      </c>
+      <c r="AT3">
+        <v>222544000000</v>
+      </c>
+      <c r="AU3">
+        <v>237089500000</v>
+      </c>
+      <c r="AV3">
+        <v>237089500000</v>
+      </c>
+      <c r="AW3">
+        <v>237089500000</v>
+      </c>
+      <c r="AX3">
+        <v>251635000000</v>
+      </c>
+      <c r="AY3">
+        <v>253889500000</v>
+      </c>
+      <c r="AZ3">
+        <v>253889500000</v>
+      </c>
+      <c r="BA3">
+        <v>253889500000</v>
+      </c>
+      <c r="BB3">
+        <v>256144000000</v>
+      </c>
+      <c r="BC3">
+        <v>269761500000</v>
+      </c>
+      <c r="BD3">
+        <v>269761500000</v>
+      </c>
+      <c r="BE3">
+        <v>269761500000</v>
+      </c>
+      <c r="BF3">
+        <v>283379000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>46175000000</v>
+      </c>
+      <c r="E4">
+        <v>51629000000</v>
+      </c>
+      <c r="F4">
+        <v>51629000000</v>
+      </c>
+      <c r="G4">
+        <v>51629000000</v>
+      </c>
+      <c r="H4">
+        <v>57083000000</v>
+      </c>
+      <c r="I4">
+        <v>61723000000</v>
+      </c>
+      <c r="J4">
+        <v>61723000000</v>
+      </c>
+      <c r="K4">
+        <v>61723000000</v>
+      </c>
+      <c r="L4">
+        <v>66363000000</v>
+      </c>
+      <c r="M4">
+        <v>72653500000</v>
+      </c>
+      <c r="N4">
+        <v>72653500000</v>
+      </c>
+      <c r="O4">
+        <v>72653500000</v>
+      </c>
+      <c r="P4">
+        <v>78944000000</v>
+      </c>
+      <c r="Q4">
+        <v>84364000000</v>
+      </c>
+      <c r="R4">
+        <v>84364000000</v>
+      </c>
+      <c r="S4">
+        <v>84364000000</v>
+      </c>
+      <c r="T4">
+        <v>89784000000</v>
+      </c>
+      <c r="U4">
+        <v>84933500000</v>
+      </c>
+      <c r="V4">
+        <v>84933500000</v>
+      </c>
+      <c r="W4">
+        <v>84933500000</v>
+      </c>
+      <c r="X4">
+        <v>80083000000</v>
+      </c>
+      <c r="Y4">
+        <v>76040000000</v>
+      </c>
+      <c r="Z4">
+        <v>76040000000</v>
+      </c>
+      <c r="AA4">
+        <v>76040000000</v>
+      </c>
+      <c r="AB4">
+        <v>71997000000</v>
+      </c>
+      <c r="AC4">
+        <v>72195500000</v>
+      </c>
+      <c r="AD4">
+        <v>72195500000</v>
+      </c>
+      <c r="AE4">
+        <v>72195500000</v>
+      </c>
+      <c r="AF4">
+        <v>72394000000</v>
+      </c>
+      <c r="AG4">
+        <v>77556000000</v>
+      </c>
+      <c r="AH4">
+        <v>77556000000</v>
+      </c>
+      <c r="AI4">
+        <v>77556000000</v>
+      </c>
+      <c r="AJ4">
+        <v>82718000000</v>
+      </c>
+      <c r="AK4">
+        <v>92524000000</v>
+      </c>
+      <c r="AL4">
+        <v>92524000000</v>
+      </c>
+      <c r="AM4">
+        <v>92524000000</v>
+      </c>
+      <c r="AN4">
+        <v>102330000000</v>
+      </c>
+      <c r="AO4">
+        <v>110317000000</v>
+      </c>
+      <c r="AP4">
+        <v>110317000000</v>
+      </c>
+      <c r="AQ4">
+        <v>110317000000</v>
+      </c>
+      <c r="AR4">
+        <v>118304000000</v>
+      </c>
+      <c r="AS4">
+        <v>130146000000</v>
+      </c>
+      <c r="AT4">
+        <v>130146000000</v>
+      </c>
+      <c r="AU4">
+        <v>130146000000</v>
+      </c>
+      <c r="AV4">
+        <v>141988000000</v>
+      </c>
+      <c r="AW4">
+        <v>154265000000</v>
+      </c>
+      <c r="AX4">
+        <v>154265000000</v>
+      </c>
+      <c r="AY4">
+        <v>154265000000</v>
+      </c>
+      <c r="AZ4">
+        <v>166542000000</v>
+      </c>
+      <c r="BA4">
+        <v>186382500000</v>
+      </c>
+      <c r="BB4">
+        <v>186382500000</v>
+      </c>
+      <c r="BC4">
+        <v>186382500000</v>
+      </c>
+      <c r="BD4">
+        <v>206223000000</v>
+      </c>
+      <c r="BE4">
+        <v>237350000000</v>
+      </c>
+      <c r="BF4">
+        <v>237350000000</v>
+      </c>
+      <c r="BG4">
+        <v>237350000000</v>
+      </c>
+      <c r="BH4">
+        <v>268477000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>27832000000</v>
+      </c>
+      <c r="C5">
+        <v>37811500000</v>
+      </c>
+      <c r="D5">
+        <v>37811500000</v>
+      </c>
+      <c r="E5">
+        <v>47791000000</v>
+      </c>
+      <c r="F5">
+        <v>62203000000</v>
+      </c>
+      <c r="G5">
+        <v>62203000000</v>
+      </c>
+      <c r="H5">
+        <v>62203000000</v>
+      </c>
+      <c r="I5">
+        <v>76615000000</v>
+      </c>
+      <c r="J5">
+        <v>97412500000</v>
+      </c>
+      <c r="K5">
+        <v>97412500000</v>
+      </c>
+      <c r="L5">
+        <v>97412500000</v>
+      </c>
+      <c r="M5">
+        <v>118210000000</v>
+      </c>
+      <c r="N5">
+        <v>120879500000</v>
+      </c>
+      <c r="O5">
+        <v>120879500000</v>
+      </c>
+      <c r="P5">
+        <v>120879500000</v>
+      </c>
+      <c r="Q5">
+        <v>123549000000</v>
+      </c>
+      <c r="R5">
+        <v>117548000000</v>
+      </c>
+      <c r="S5">
+        <v>117548000000</v>
+      </c>
+      <c r="T5">
+        <v>117548000000</v>
+      </c>
+      <c r="U5">
+        <v>111547000000</v>
+      </c>
+      <c r="V5">
+        <v>115451000000</v>
+      </c>
+      <c r="W5">
+        <v>115451000000</v>
+      </c>
+      <c r="X5">
+        <v>115451000000</v>
+      </c>
+      <c r="Y5">
+        <v>119355000000</v>
+      </c>
+      <c r="Z5">
+        <v>123802000000</v>
+      </c>
+      <c r="AA5">
+        <v>123802000000</v>
+      </c>
+      <c r="AB5">
+        <v>123802000000</v>
+      </c>
+      <c r="AC5">
+        <v>128249000000</v>
+      </c>
+      <c r="AD5">
+        <v>131148000000</v>
+      </c>
+      <c r="AE5">
+        <v>131148000000</v>
+      </c>
+      <c r="AF5">
+        <v>131148000000</v>
+      </c>
+      <c r="AG5">
+        <v>134047000000</v>
+      </c>
+      <c r="AH5">
+        <v>120597000000</v>
+      </c>
+      <c r="AI5">
+        <v>120597000000</v>
+      </c>
+      <c r="AJ5">
+        <v>120597000000</v>
+      </c>
+      <c r="AK5">
+        <v>107147000000</v>
+      </c>
+      <c r="AL5">
+        <v>98817500000</v>
+      </c>
+      <c r="AM5">
+        <v>98817500000</v>
+      </c>
+      <c r="AN5">
+        <v>98817500000</v>
+      </c>
+      <c r="AO5">
+        <v>90488000000</v>
+      </c>
+      <c r="AP5">
+        <v>77913500000</v>
+      </c>
+      <c r="AQ5">
+        <v>77913500000</v>
+      </c>
+      <c r="AR5">
+        <v>77913500000</v>
+      </c>
+      <c r="AS5">
+        <v>65339000000</v>
+      </c>
+      <c r="AT5">
+        <v>64214500000</v>
+      </c>
+      <c r="AU5">
+        <v>64214500000</v>
+      </c>
+      <c r="AV5">
+        <v>64214500000</v>
+      </c>
+      <c r="AW5">
+        <v>63090000000</v>
+      </c>
+      <c r="AX5">
+        <v>56881000000</v>
+      </c>
+      <c r="AY5">
+        <v>56881000000</v>
+      </c>
+      <c r="AZ5">
+        <v>56881000000</v>
+      </c>
+      <c r="BA5">
+        <v>50672000000</v>
+      </c>
+      <c r="BB5">
+        <v>56409000000</v>
+      </c>
+      <c r="BC5">
+        <v>56409000000</v>
+      </c>
+      <c r="BD5">
+        <v>56409000000</v>
+      </c>
+      <c r="BE5">
+        <v>62146000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>5257000000</v>
+      </c>
+      <c r="D6">
+        <v>6060500000</v>
+      </c>
+      <c r="E6">
+        <v>6060500000</v>
+      </c>
+      <c r="F6">
+        <v>6864000000</v>
+      </c>
+      <c r="G6">
+        <v>7310500000</v>
+      </c>
+      <c r="H6">
+        <v>7310500000</v>
+      </c>
+      <c r="I6">
+        <v>7310500000</v>
+      </c>
+      <c r="J6">
+        <v>7757000000</v>
+      </c>
+      <c r="K6">
+        <v>7974500000</v>
+      </c>
+      <c r="L6">
+        <v>7974500000</v>
+      </c>
+      <c r="M6">
+        <v>7974500000</v>
+      </c>
+      <c r="N6">
+        <v>8192000000</v>
+      </c>
+      <c r="O6">
+        <v>8969000000</v>
+      </c>
+      <c r="P6">
+        <v>8969000000</v>
+      </c>
+      <c r="Q6">
+        <v>8969000000</v>
+      </c>
+      <c r="R6">
+        <v>9746000000</v>
+      </c>
+      <c r="S6">
+        <v>10243500000</v>
+      </c>
+      <c r="T6">
+        <v>10243500000</v>
+      </c>
+      <c r="U6">
+        <v>10243500000</v>
+      </c>
+      <c r="V6">
+        <v>10741000000</v>
+      </c>
+      <c r="W6">
+        <v>12062500000</v>
+      </c>
+      <c r="X6">
+        <v>12062500000</v>
+      </c>
+      <c r="Y6">
+        <v>12062500000</v>
+      </c>
+      <c r="Z6">
+        <v>13384000000</v>
+      </c>
+      <c r="AA6">
+        <v>16334500000</v>
+      </c>
+      <c r="AB6">
+        <v>16334500000</v>
+      </c>
+      <c r="AC6">
+        <v>16334500000</v>
+      </c>
+      <c r="AD6">
+        <v>19285000000</v>
+      </c>
+      <c r="AE6">
+        <v>23497000000</v>
+      </c>
+      <c r="AF6">
+        <v>23497000000</v>
+      </c>
+      <c r="AG6">
+        <v>23497000000</v>
+      </c>
+      <c r="AH6">
+        <v>27709000000</v>
+      </c>
+      <c r="AI6">
+        <v>35629000000</v>
+      </c>
+      <c r="AJ6">
+        <v>35629000000</v>
+      </c>
+      <c r="AK6">
+        <v>35629000000</v>
+      </c>
+      <c r="AL6">
+        <v>43549000000</v>
+      </c>
+      <c r="AM6">
+        <v>52804500000</v>
+      </c>
+      <c r="AN6">
+        <v>52804500000</v>
+      </c>
+      <c r="AO6">
+        <v>52804500000</v>
+      </c>
+      <c r="AP6">
+        <v>62060000000</v>
+      </c>
+      <c r="AQ6">
+        <v>77732000000</v>
+      </c>
+      <c r="AR6">
+        <v>77732000000</v>
+      </c>
+      <c r="AS6">
+        <v>77732000000</v>
+      </c>
+      <c r="AT6">
+        <v>93404000000</v>
+      </c>
+      <c r="AU6">
+        <v>115824500000</v>
+      </c>
+      <c r="AV6">
+        <v>115824500000</v>
+      </c>
+      <c r="AW6">
+        <v>115824500000</v>
+      </c>
+      <c r="AX6">
+        <v>138245000000</v>
+      </c>
+      <c r="AY6">
+        <v>142144000000</v>
+      </c>
+      <c r="AZ6">
+        <v>142144000000</v>
+      </c>
+      <c r="BA6">
+        <v>142144000000</v>
+      </c>
+      <c r="BB6">
+        <v>146043000000</v>
+      </c>
+      <c r="BC6">
+        <v>173959000000</v>
+      </c>
+      <c r="BD6">
+        <v>173959000000</v>
+      </c>
+      <c r="BE6">
+        <v>173959000000</v>
+      </c>
+      <c r="BF6">
+        <v>201875000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>11755000000</v>
+      </c>
+      <c r="O7">
+        <v>13612500000</v>
+      </c>
+      <c r="P7">
+        <v>13612500000</v>
+      </c>
+      <c r="Q7">
+        <v>13612500000</v>
+      </c>
+      <c r="R7">
+        <v>15470000000</v>
+      </c>
+      <c r="S7">
+        <v>25783000000</v>
+      </c>
+      <c r="T7">
+        <v>25783000000</v>
+      </c>
+      <c r="U7">
+        <v>25783000000</v>
+      </c>
+      <c r="V7">
+        <v>36096000000</v>
+      </c>
+      <c r="W7">
+        <v>40157000000</v>
+      </c>
+      <c r="X7">
+        <v>40157000000</v>
+      </c>
+      <c r="Y7">
+        <v>40157000000</v>
+      </c>
+      <c r="Z7">
+        <v>44218000000</v>
+      </c>
+      <c r="AA7">
+        <v>51706000000</v>
+      </c>
+      <c r="AB7">
+        <v>51706000000</v>
+      </c>
+      <c r="AC7">
+        <v>51706000000</v>
+      </c>
+      <c r="AD7">
+        <v>59194000000</v>
+      </c>
+      <c r="AE7">
+        <v>66770500000</v>
+      </c>
+      <c r="AF7">
+        <v>66770500000</v>
+      </c>
+      <c r="AG7">
+        <v>66770500000</v>
+      </c>
+      <c r="AH7">
+        <v>74347000000</v>
+      </c>
+      <c r="AI7">
+        <v>79237000000</v>
+      </c>
+      <c r="AJ7">
+        <v>79237000000</v>
+      </c>
+      <c r="AK7">
+        <v>79237000000</v>
+      </c>
+      <c r="AL7">
+        <v>84127000000</v>
+      </c>
+      <c r="AM7">
+        <v>92590500000</v>
+      </c>
+      <c r="AN7">
+        <v>92590500000</v>
+      </c>
+      <c r="AO7">
+        <v>92590500000</v>
+      </c>
+      <c r="AP7">
+        <v>101054000000</v>
+      </c>
+      <c r="AQ7">
+        <v>114672000000</v>
+      </c>
+      <c r="AR7">
+        <v>114672000000</v>
+      </c>
+      <c r="AS7">
+        <v>114672000000</v>
+      </c>
+      <c r="AT7">
+        <v>128290000000</v>
+      </c>
+      <c r="AU7">
+        <v>126584500000</v>
+      </c>
+      <c r="AV7">
+        <v>126584500000</v>
+      </c>
+      <c r="AW7">
+        <v>126584500000</v>
+      </c>
+      <c r="AX7">
+        <v>124879000000</v>
+      </c>
+      <c r="AY7">
+        <v>125296000000</v>
+      </c>
+      <c r="AZ7">
+        <v>125296000000</v>
+      </c>
+      <c r="BA7">
+        <v>125296000000</v>
+      </c>
+      <c r="BB7">
+        <v>125713000000</v>
+      </c>
+      <c r="BC7">
+        <v>139440500000</v>
+      </c>
+      <c r="BD7">
+        <v>139440500000</v>
+      </c>
+      <c r="BE7">
+        <v>139440500000</v>
+      </c>
+      <c r="BF7">
+        <v>153168000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>224045000</v>
+      </c>
+      <c r="K8">
+        <v>174372500</v>
+      </c>
+      <c r="L8">
+        <v>174372500</v>
+      </c>
+      <c r="M8">
+        <v>174372500</v>
+      </c>
+      <c r="N8">
+        <v>124700000</v>
+      </c>
+      <c r="O8">
+        <v>395910000</v>
+      </c>
+      <c r="P8">
+        <v>395910000</v>
+      </c>
+      <c r="Q8">
+        <v>395910000</v>
+      </c>
+      <c r="R8">
+        <v>667120000</v>
+      </c>
+      <c r="S8">
+        <v>789415000</v>
+      </c>
+      <c r="T8">
+        <v>789415000</v>
+      </c>
+      <c r="U8">
+        <v>789415000</v>
+      </c>
+      <c r="V8">
+        <v>911710000</v>
+      </c>
+      <c r="W8">
+        <v>1000327000</v>
+      </c>
+      <c r="X8">
+        <v>1000327000</v>
+      </c>
+      <c r="Y8">
+        <v>1000327000</v>
+      </c>
+      <c r="Z8">
+        <v>1088944000</v>
+      </c>
+      <c r="AA8">
+        <v>2920927500</v>
+      </c>
+      <c r="AB8">
+        <v>2920927500</v>
+      </c>
+      <c r="AC8">
+        <v>2920927500</v>
+      </c>
+      <c r="AD8">
+        <v>4752911000</v>
+      </c>
+      <c r="AE8">
+        <v>4495076500</v>
+      </c>
+      <c r="AF8">
+        <v>4495076500</v>
+      </c>
+      <c r="AG8">
+        <v>4495076500</v>
+      </c>
+      <c r="AH8">
+        <v>4237242000</v>
+      </c>
+      <c r="AI8">
+        <v>4580242500</v>
+      </c>
+      <c r="AJ8">
+        <v>4580242500</v>
+      </c>
+      <c r="AK8">
+        <v>4580242500</v>
+      </c>
+      <c r="AL8">
+        <v>4923243000</v>
+      </c>
+      <c r="AM8">
+        <v>5770621500</v>
+      </c>
+      <c r="AN8">
+        <v>5770621500</v>
+      </c>
+      <c r="AO8">
+        <v>5770621500</v>
+      </c>
+      <c r="AP8">
+        <v>6618000000</v>
+      </c>
+      <c r="AQ8">
+        <v>14421500000</v>
+      </c>
+      <c r="AR8">
+        <v>14421500000</v>
+      </c>
+      <c r="AS8">
+        <v>14421500000</v>
+      </c>
+      <c r="AT8">
+        <v>22225000000</v>
+      </c>
+      <c r="AU8">
+        <v>26207000000</v>
+      </c>
+      <c r="AV8">
+        <v>26207000000</v>
+      </c>
+      <c r="AW8">
+        <v>26207000000</v>
+      </c>
+      <c r="AX8">
+        <v>30189000000</v>
+      </c>
+      <c r="AY8">
+        <v>37446500000</v>
+      </c>
+      <c r="AZ8">
+        <v>37446500000</v>
+      </c>
+      <c r="BA8">
+        <v>37446500000</v>
+      </c>
+      <c r="BB8">
+        <v>44704000000</v>
+      </c>
+      <c r="BC8">
+        <v>53669000000</v>
+      </c>
+      <c r="BD8">
+        <v>53669000000</v>
+      </c>
+      <c r="BE8">
+        <v>53669000000</v>
+      </c>
+      <c r="BF8">
+        <v>62634000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0CF856-E529-4335-8BA6-FB5E352D8657}">
+  <dimension ref="A1:AQ8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="43" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>40359</v>
+      </c>
+      <c r="C1" s="1">
+        <v>40724</v>
+      </c>
+      <c r="D1" s="1">
+        <v>40908</v>
+      </c>
+      <c r="E1" s="1">
+        <v>41090</v>
+      </c>
+      <c r="F1" s="1">
+        <v>41274</v>
+      </c>
+      <c r="G1" s="1">
+        <v>41455</v>
+      </c>
+      <c r="H1" s="1">
+        <v>41545</v>
+      </c>
+      <c r="I1" s="1">
+        <v>41639</v>
+      </c>
+      <c r="J1" s="1">
+        <v>41665</v>
+      </c>
+      <c r="K1" s="1">
+        <v>41820</v>
+      </c>
+      <c r="L1" s="1">
+        <v>41909</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42004</v>
+      </c>
+      <c r="N1" s="1">
+        <v>42029</v>
+      </c>
+      <c r="O1" s="1">
+        <v>42185</v>
+      </c>
+      <c r="P1" s="1">
+        <v>42369</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>42400</v>
+      </c>
+      <c r="R1" s="1">
+        <v>42551</v>
+      </c>
+      <c r="S1" s="1">
+        <v>42735</v>
+      </c>
+      <c r="T1" s="1">
+        <v>42764</v>
+      </c>
+      <c r="U1" s="1">
+        <v>42916</v>
+      </c>
+      <c r="V1" s="1">
+        <v>43100</v>
+      </c>
+      <c r="W1" s="1">
+        <v>43128</v>
+      </c>
+      <c r="X1" s="1">
+        <v>43281</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>43465</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>43492</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>43646</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>43830</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>43856</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>44227</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>44377</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>44561</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>44591</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>44742</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>44926</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>44955</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>45107</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>45199</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>45291</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>45319</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1356375000</v>
+      </c>
+      <c r="K2">
+        <v>1370358500</v>
+      </c>
+      <c r="L2">
+        <v>1370358500</v>
+      </c>
+      <c r="M2">
+        <v>1370358500</v>
+      </c>
+      <c r="N2">
+        <v>1384342000</v>
+      </c>
+      <c r="O2">
+        <v>1398671000</v>
+      </c>
+      <c r="P2">
+        <v>1398671000</v>
+      </c>
+      <c r="Q2">
+        <v>1413000000</v>
+      </c>
+      <c r="R2">
+        <v>1698000000</v>
+      </c>
+      <c r="S2">
+        <v>1698000000</v>
+      </c>
+      <c r="T2">
+        <v>1983000000</v>
+      </c>
+      <c r="U2">
+        <v>1984000000</v>
+      </c>
+      <c r="V2">
+        <v>1984000000</v>
+      </c>
+      <c r="W2">
+        <v>1985000000</v>
+      </c>
+      <c r="X2">
+        <v>1986500000</v>
+      </c>
+      <c r="Y2">
+        <v>1986500000</v>
+      </c>
+      <c r="Z2">
+        <v>1988000000</v>
+      </c>
+      <c r="AA2">
+        <v>1989500000</v>
+      </c>
+      <c r="AB2">
+        <v>1989500000</v>
+      </c>
+      <c r="AC2">
+        <v>1991000000</v>
+      </c>
+      <c r="AD2">
+        <v>4477000000</v>
+      </c>
+      <c r="AE2">
+        <v>4477000000</v>
+      </c>
+      <c r="AF2">
+        <v>6963000000</v>
+      </c>
+      <c r="AG2">
+        <v>8954500000</v>
+      </c>
+      <c r="AH2">
+        <v>8954500000</v>
+      </c>
+      <c r="AI2">
+        <v>10946000000</v>
+      </c>
+      <c r="AJ2">
+        <v>10949500000</v>
+      </c>
+      <c r="AK2">
+        <v>10949500000</v>
+      </c>
+      <c r="AL2">
+        <v>10953000000</v>
+      </c>
+      <c r="AM2">
+        <v>10331000000</v>
+      </c>
+      <c r="AN2">
+        <v>10331000000</v>
+      </c>
+      <c r="AO2">
+        <v>10331000000</v>
+      </c>
+      <c r="AP2">
+        <v>9709000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>3225000000</v>
+      </c>
+      <c r="Q3">
+        <v>3612500000</v>
+      </c>
+      <c r="R3">
+        <v>3612500000</v>
+      </c>
+      <c r="S3">
+        <v>4000000000</v>
+      </c>
+      <c r="T3">
+        <v>4013000000</v>
+      </c>
+      <c r="U3">
+        <v>4013000000</v>
+      </c>
+      <c r="V3">
+        <v>4026000000</v>
+      </c>
+      <c r="W3">
+        <v>4044000000</v>
+      </c>
+      <c r="X3">
+        <v>4044000000</v>
+      </c>
+      <c r="Y3">
+        <v>4062000000</v>
+      </c>
+      <c r="Z3">
+        <v>4373500000</v>
+      </c>
+      <c r="AA3">
+        <v>4373500000</v>
+      </c>
+      <c r="AB3">
+        <v>4685000000</v>
+      </c>
+      <c r="AC3">
+        <v>10002000000</v>
+      </c>
+      <c r="AD3">
+        <v>10002000000</v>
+      </c>
+      <c r="AE3">
+        <v>15319000000</v>
+      </c>
+      <c r="AF3">
+        <v>15379500000</v>
+      </c>
+      <c r="AG3">
+        <v>15379500000</v>
+      </c>
+      <c r="AH3">
+        <v>15440000000</v>
+      </c>
+      <c r="AI3">
+        <v>15376000000</v>
+      </c>
+      <c r="AJ3">
+        <v>15376000000</v>
+      </c>
+      <c r="AK3">
+        <v>15312000000</v>
+      </c>
+      <c r="AL3">
+        <v>15087000000</v>
+      </c>
+      <c r="AM3">
+        <v>15087000000</v>
+      </c>
+      <c r="AN3">
+        <v>15087000000</v>
+      </c>
+      <c r="AO3">
+        <v>14862000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>5000000000</v>
+      </c>
+      <c r="C4">
+        <v>11900000000</v>
+      </c>
+      <c r="D4">
+        <v>11900000000</v>
+      </c>
+      <c r="E4">
+        <v>11900000000</v>
+      </c>
+      <c r="F4">
+        <v>13750000000</v>
+      </c>
+      <c r="G4">
+        <v>15600000000</v>
+      </c>
+      <c r="H4">
+        <v>18100000000</v>
+      </c>
+      <c r="I4">
+        <v>18100000000</v>
+      </c>
+      <c r="J4">
+        <v>18100000000</v>
+      </c>
+      <c r="K4">
+        <v>20600000000</v>
+      </c>
+      <c r="L4">
+        <v>25450000000</v>
+      </c>
+      <c r="M4">
+        <v>25450000000</v>
+      </c>
+      <c r="N4">
+        <v>25450000000</v>
+      </c>
+      <c r="O4">
+        <v>30300000000</v>
+      </c>
+      <c r="P4">
+        <v>35550000000</v>
+      </c>
+      <c r="Q4">
+        <v>35550000000</v>
+      </c>
+      <c r="R4">
+        <v>40800000000</v>
+      </c>
+      <c r="S4">
+        <v>58950000000</v>
+      </c>
+      <c r="T4">
+        <v>58950000000</v>
+      </c>
+      <c r="U4">
+        <v>77100000000</v>
+      </c>
+      <c r="V4">
+        <v>76650000000</v>
+      </c>
+      <c r="W4">
+        <v>76650000000</v>
+      </c>
+      <c r="X4">
+        <v>76200000000</v>
+      </c>
+      <c r="Y4">
+        <v>74200000000</v>
+      </c>
+      <c r="Z4">
+        <v>74200000000</v>
+      </c>
+      <c r="AA4">
+        <v>72200000000</v>
+      </c>
+      <c r="AB4">
+        <v>67763500000</v>
+      </c>
+      <c r="AC4">
+        <v>67763500000</v>
+      </c>
+      <c r="AD4">
+        <v>63327000000</v>
+      </c>
+      <c r="AE4">
+        <v>60736500000</v>
+      </c>
+      <c r="AF4">
+        <v>60736500000</v>
+      </c>
+      <c r="AG4">
+        <v>58146000000</v>
+      </c>
+      <c r="AH4">
+        <v>53963500000</v>
+      </c>
+      <c r="AI4">
+        <v>53963500000</v>
+      </c>
+      <c r="AJ4">
+        <v>49781000000</v>
+      </c>
+      <c r="AK4">
+        <v>48509000000</v>
+      </c>
+      <c r="AL4">
+        <v>48509000000</v>
+      </c>
+      <c r="AM4">
+        <v>47237000000</v>
+      </c>
+      <c r="AN4">
+        <v>46087000000</v>
+      </c>
+      <c r="AO4">
+        <v>46087000000</v>
+      </c>
+      <c r="AP4">
+        <v>46087000000</v>
+      </c>
+      <c r="AQ4">
+        <v>44937000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>16960000000</v>
+      </c>
+      <c r="I5">
+        <v>22973500000</v>
+      </c>
+      <c r="J5">
+        <v>22973500000</v>
+      </c>
+      <c r="K5">
+        <v>22973500000</v>
+      </c>
+      <c r="L5">
+        <v>28987000000</v>
+      </c>
+      <c r="M5">
+        <v>67045000000</v>
+      </c>
+      <c r="N5">
+        <v>67045000000</v>
+      </c>
+      <c r="O5">
+        <v>67045000000</v>
+      </c>
+      <c r="P5">
+        <v>67045000000</v>
+      </c>
+      <c r="Q5">
+        <v>67045000000</v>
+      </c>
+      <c r="R5">
+        <v>67045000000</v>
+      </c>
+      <c r="S5">
+        <v>67045000000</v>
+      </c>
+      <c r="T5">
+        <v>67045000000</v>
+      </c>
+      <c r="U5">
+        <v>67045000000</v>
+      </c>
+      <c r="V5">
+        <v>67045000000</v>
+      </c>
+      <c r="W5">
+        <v>67045000000</v>
+      </c>
+      <c r="X5">
+        <v>67045000000</v>
+      </c>
+      <c r="Y5">
+        <v>67045000000</v>
+      </c>
+      <c r="Z5">
+        <v>67045000000</v>
+      </c>
+      <c r="AA5">
+        <v>67045000000</v>
+      </c>
+      <c r="AB5">
+        <v>67045000000</v>
+      </c>
+      <c r="AC5">
+        <v>67045000000</v>
+      </c>
+      <c r="AD5">
+        <v>67045000000</v>
+      </c>
+      <c r="AE5">
+        <v>67045000000</v>
+      </c>
+      <c r="AF5">
+        <v>67045000000</v>
+      </c>
+      <c r="AG5">
+        <v>67045000000</v>
+      </c>
+      <c r="AH5">
+        <v>67045000000</v>
+      </c>
+      <c r="AI5">
+        <v>67045000000</v>
+      </c>
+      <c r="AJ5">
+        <v>67045000000</v>
+      </c>
+      <c r="AK5">
+        <v>67045000000</v>
+      </c>
+      <c r="AL5">
+        <v>67045000000</v>
+      </c>
+      <c r="AM5">
+        <v>67045000000</v>
+      </c>
+      <c r="AN5">
+        <v>105103000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>384000000</v>
+      </c>
+      <c r="E6">
+        <v>2037500000</v>
+      </c>
+      <c r="F6">
+        <v>3691000000</v>
+      </c>
+      <c r="G6">
+        <v>3829000000</v>
+      </c>
+      <c r="H6">
+        <v>3829000000</v>
+      </c>
+      <c r="I6">
+        <v>3967000000</v>
+      </c>
+      <c r="J6">
+        <v>6924000000</v>
+      </c>
+      <c r="K6">
+        <v>6924000000</v>
+      </c>
+      <c r="L6">
+        <v>6924000000</v>
+      </c>
+      <c r="M6">
+        <v>9881000000</v>
+      </c>
+      <c r="N6">
+        <v>9221500000</v>
+      </c>
+      <c r="O6">
+        <v>9221500000</v>
+      </c>
+      <c r="P6">
+        <v>8562000000</v>
+      </c>
+      <c r="Q6">
+        <v>8700000000</v>
+      </c>
+      <c r="R6">
+        <v>8700000000</v>
+      </c>
+      <c r="S6">
+        <v>8838000000</v>
+      </c>
+      <c r="T6">
+        <v>16890000000</v>
+      </c>
+      <c r="U6">
+        <v>16890000000</v>
+      </c>
+      <c r="V6">
+        <v>24942000000</v>
+      </c>
+      <c r="W6">
+        <v>24953500000</v>
+      </c>
+      <c r="X6">
+        <v>24953500000</v>
+      </c>
+      <c r="Y6">
+        <v>24965000000</v>
+      </c>
+      <c r="Z6">
+        <v>24892500000</v>
+      </c>
+      <c r="AA6">
+        <v>24892500000</v>
+      </c>
+      <c r="AB6">
+        <v>24820000000</v>
+      </c>
+      <c r="AC6">
+        <v>28997000000</v>
+      </c>
+      <c r="AD6">
+        <v>28997000000</v>
+      </c>
+      <c r="AE6">
+        <v>33174000000</v>
+      </c>
+      <c r="AF6">
+        <v>41863500000</v>
+      </c>
+      <c r="AG6">
+        <v>41863500000</v>
+      </c>
+      <c r="AH6">
+        <v>50553000000</v>
+      </c>
+      <c r="AI6">
+        <v>60547500000</v>
+      </c>
+      <c r="AJ6">
+        <v>60547500000</v>
+      </c>
+      <c r="AK6">
+        <v>70542000000</v>
+      </c>
+      <c r="AL6">
+        <v>68862000000</v>
+      </c>
+      <c r="AM6">
+        <v>68862000000</v>
+      </c>
+      <c r="AN6">
+        <v>68862000000</v>
+      </c>
+      <c r="AO6">
+        <v>67182000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO7">
+        <v>18385000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>452336000</v>
+      </c>
+      <c r="G8">
+        <v>1706065500</v>
+      </c>
+      <c r="H8">
+        <v>1706065500</v>
+      </c>
+      <c r="I8">
+        <v>1706065500</v>
+      </c>
+      <c r="J8">
+        <v>1706065500</v>
+      </c>
+      <c r="K8">
+        <v>1706065500</v>
+      </c>
+      <c r="L8">
+        <v>1706065500</v>
+      </c>
+      <c r="M8">
+        <v>2959795000</v>
+      </c>
+      <c r="N8">
+        <v>1482843508</v>
+      </c>
+      <c r="O8">
+        <v>1482843508</v>
+      </c>
+      <c r="P8">
+        <v>1482843508</v>
+      </c>
+      <c r="Q8">
+        <v>1482843508</v>
+      </c>
+      <c r="R8">
+        <v>1482843508</v>
+      </c>
+      <c r="S8">
+        <v>5892016</v>
+      </c>
+      <c r="T8">
+        <v>4417438508</v>
+      </c>
+      <c r="U8">
+        <v>4417438508</v>
+      </c>
+      <c r="V8">
+        <v>8828985000</v>
+      </c>
+      <c r="W8">
+        <v>8619737500</v>
+      </c>
+      <c r="X8">
+        <v>8619737500</v>
+      </c>
+      <c r="Y8">
+        <v>8410490000</v>
+      </c>
+      <c r="Z8">
+        <v>9406245000</v>
+      </c>
+      <c r="AA8">
+        <v>9406245000</v>
+      </c>
+      <c r="AB8">
+        <v>10402000000</v>
+      </c>
+      <c r="AC8">
+        <v>9432000000</v>
+      </c>
+      <c r="AD8">
+        <v>9432000000</v>
+      </c>
+      <c r="AE8">
+        <v>8462000000</v>
+      </c>
+      <c r="AF8">
+        <v>6358000000</v>
+      </c>
+      <c r="AG8">
+        <v>6358000000</v>
+      </c>
+      <c r="AH8">
+        <v>4254000000</v>
+      </c>
+      <c r="AI8">
+        <v>2641500000</v>
+      </c>
+      <c r="AJ8">
+        <v>2641500000</v>
+      </c>
+      <c r="AK8">
+        <v>1029000000</v>
+      </c>
+      <c r="AL8">
+        <v>1855500000</v>
+      </c>
+      <c r="AM8">
+        <v>1855500000</v>
+      </c>
+      <c r="AN8">
+        <v>1855500000</v>
+      </c>
+      <c r="AO8">
+        <v>2682000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0235A150-6D9C-4F86-ADDE-502471A43646}">
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51216,12 +59564,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF512A9-65B6-46B7-840D-F4E53473A5D7}">
   <dimension ref="A1:GJ27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/StockAnalyzer/Documents/EdgarProvider.xlsx
+++ b/StockAnalyzer/Documents/EdgarProvider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD26F03-3069-4676-8732-536D8399CC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81396F69-50B4-4926-9A3A-9FFD60A97A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{69F7E449-CA71-4324-B9CA-D112D8976653}"/>
+    <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" activeTab="6" xr2:uid="{69F7E449-CA71-4324-B9CA-D112D8976653}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="12">
   <si>
     <t>Symbol</t>
   </si>
@@ -1874,6 +1874,471 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Long-Term Debt'!$A$31:$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>NVDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Long-Term Debt'!$J$30:$AQ$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41820</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43492</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Long-Term Debt'!$J$31:$AQ$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1356375000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1370358500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1370358500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1370358500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1384342000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1398671000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1398671000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1413000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1698000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1698000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1983000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1984000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1984000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1985000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1986500000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1986500000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1988000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1989500000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1989500000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1991000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4477000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4477000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6963000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8954500000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8954500000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10946000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10949500000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10949500000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10953000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10331000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10331000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10331000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9709000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7460-4ECD-8BC3-C4F50A6F0D79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="497002575"/>
+        <c:axId val="497003535"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="497002575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497003535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="497003535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497002575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2543,7 +3008,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2891,7 +3356,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -35448,6 +35913,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -36324,6 +36829,522 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -36839,7 +37860,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -37355,7 +38376,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -42345,6 +43366,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3C6FBA-A197-4D49-DFB7-D71B39CBC7FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -57033,7 +58090,7 @@
   <dimension ref="A1:BH8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58314,10 +59371,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0CF856-E529-4335-8BA6-FB5E352D8657}">
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59118,6 +60175,241 @@
       </c>
       <c r="AO8">
         <v>2682000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>40359</v>
+      </c>
+      <c r="C30" s="1">
+        <v>40724</v>
+      </c>
+      <c r="D30" s="1">
+        <v>40908</v>
+      </c>
+      <c r="E30" s="1">
+        <v>41090</v>
+      </c>
+      <c r="F30" s="1">
+        <v>41274</v>
+      </c>
+      <c r="G30" s="1">
+        <v>41455</v>
+      </c>
+      <c r="H30" s="1">
+        <v>41545</v>
+      </c>
+      <c r="I30" s="1">
+        <v>41639</v>
+      </c>
+      <c r="J30" s="1">
+        <v>41665</v>
+      </c>
+      <c r="K30" s="1">
+        <v>41820</v>
+      </c>
+      <c r="L30" s="1">
+        <v>41909</v>
+      </c>
+      <c r="M30" s="1">
+        <v>42004</v>
+      </c>
+      <c r="N30" s="1">
+        <v>42029</v>
+      </c>
+      <c r="O30" s="1">
+        <v>42185</v>
+      </c>
+      <c r="P30" s="1">
+        <v>42369</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>42400</v>
+      </c>
+      <c r="R30" s="1">
+        <v>42551</v>
+      </c>
+      <c r="S30" s="1">
+        <v>42735</v>
+      </c>
+      <c r="T30" s="1">
+        <v>42764</v>
+      </c>
+      <c r="U30" s="1">
+        <v>42916</v>
+      </c>
+      <c r="V30" s="1">
+        <v>43100</v>
+      </c>
+      <c r="W30" s="1">
+        <v>43128</v>
+      </c>
+      <c r="X30" s="1">
+        <v>43281</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>43465</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>43492</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>43646</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>43830</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>43856</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>44012</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>44196</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>44227</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>44377</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>44561</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>44591</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>44742</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>44926</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>44955</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>45107</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>45199</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>45291</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>45319</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>1356375000</v>
+      </c>
+      <c r="K31">
+        <v>1370358500</v>
+      </c>
+      <c r="L31">
+        <v>1370358500</v>
+      </c>
+      <c r="M31">
+        <v>1370358500</v>
+      </c>
+      <c r="N31">
+        <v>1384342000</v>
+      </c>
+      <c r="O31">
+        <v>1398671000</v>
+      </c>
+      <c r="P31">
+        <v>1398671000</v>
+      </c>
+      <c r="Q31">
+        <v>1413000000</v>
+      </c>
+      <c r="R31">
+        <v>1698000000</v>
+      </c>
+      <c r="S31">
+        <v>1698000000</v>
+      </c>
+      <c r="T31">
+        <v>1983000000</v>
+      </c>
+      <c r="U31">
+        <v>1984000000</v>
+      </c>
+      <c r="V31">
+        <v>1984000000</v>
+      </c>
+      <c r="W31">
+        <v>1985000000</v>
+      </c>
+      <c r="X31">
+        <v>1986500000</v>
+      </c>
+      <c r="Y31">
+        <v>1986500000</v>
+      </c>
+      <c r="Z31">
+        <v>1988000000</v>
+      </c>
+      <c r="AA31">
+        <v>1989500000</v>
+      </c>
+      <c r="AB31">
+        <v>1989500000</v>
+      </c>
+      <c r="AC31">
+        <v>1991000000</v>
+      </c>
+      <c r="AD31">
+        <v>4477000000</v>
+      </c>
+      <c r="AE31">
+        <v>4477000000</v>
+      </c>
+      <c r="AF31">
+        <v>6963000000</v>
+      </c>
+      <c r="AG31">
+        <v>8954500000</v>
+      </c>
+      <c r="AH31">
+        <v>8954500000</v>
+      </c>
+      <c r="AI31">
+        <v>10946000000</v>
+      </c>
+      <c r="AJ31">
+        <v>10949500000</v>
+      </c>
+      <c r="AK31">
+        <v>10949500000</v>
+      </c>
+      <c r="AL31">
+        <v>10953000000</v>
+      </c>
+      <c r="AM31">
+        <v>10331000000</v>
+      </c>
+      <c r="AN31">
+        <v>10331000000</v>
+      </c>
+      <c r="AO31">
+        <v>10331000000</v>
+      </c>
+      <c r="AP31">
+        <v>9709000000</v>
       </c>
     </row>
   </sheetData>
@@ -59568,7 +60860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF512A9-65B6-46B7-840D-F4E53473A5D7}">
   <dimension ref="A1:GJ27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
